--- a/results/2.xlsx
+++ b/results/2.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0439430287197989</v>
+        <v>0.04394302871979889</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7525334358215332</v>
+        <v>0.7082390785217285</v>
       </c>
     </row>
   </sheetData>

--- a/results/2.xlsx
+++ b/results/2.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7190513610839844</v>
+        <v>38.11122345924377</v>
       </c>
     </row>
   </sheetData>
